--- a/tables/time/While using parks or squares, do you behave according to social distancing regulations standing a minimum of 2.0 meters apart from other people?.xlsx
+++ b/tables/time/While using parks or squares, do you behave according to social distancing regulations standing a minimum of 2.0 meters apart from other people?.xlsx
@@ -402,10 +402,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C2">
-        <v>74.5</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -413,10 +413,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3">
-        <v>25.5</v>
+        <v>25.8</v>
       </c>
     </row>
   </sheetData>
